--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9937920364879966</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.006681252277507</v>
+      </c>
+      <c r="D16">
+        <v>0.9668042872944713</v>
+      </c>
+      <c r="E16">
+        <v>0.9982645422461321</v>
+      </c>
+      <c r="F16">
+        <v>0.9918008236398924</v>
+      </c>
+      <c r="G16">
+        <v>1.006681252277507</v>
+      </c>
+      <c r="H16">
+        <v>0.9668042872944713</v>
+      </c>
+      <c r="I16">
+        <v>1.002759702876757</v>
+      </c>
+      <c r="J16">
+        <v>0.9879085223676277</v>
+      </c>
+      <c r="K16">
+        <v>0.998656679882176</v>
+      </c>
+      <c r="L16">
+        <v>0.9761799342428142</v>
+      </c>
+      <c r="M16">
+        <v>1.006681252277507</v>
+      </c>
+      <c r="N16">
+        <v>0.9825344147703017</v>
+      </c>
+      <c r="O16">
+        <v>0.9908877263645007</v>
+      </c>
+      <c r="P16">
+        <v>0.9911319681034223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.006681252277507</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.053571999999998</v>
+        <v>1.006681252277507</v>
       </c>
       <c r="D10">
-        <v>0.9164279999999991</v>
+        <v>0.9668042872944713</v>
       </c>
       <c r="E10">
-        <v>1.016883999999999</v>
+        <v>0.9982645422461321</v>
       </c>
       <c r="F10">
-        <v>0.976664</v>
+        <v>0.9918008236398924</v>
       </c>
       <c r="G10">
-        <v>1.053571999999998</v>
+        <v>1.006681252277507</v>
       </c>
       <c r="H10">
-        <v>0.9164279999999991</v>
+        <v>0.9668042872944713</v>
       </c>
       <c r="I10">
-        <v>1.017927999999999</v>
+        <v>1.002759702876757</v>
       </c>
       <c r="J10">
-        <v>0.977700000000002</v>
+        <v>0.9879085223676277</v>
       </c>
       <c r="K10">
-        <v>1.010424000000001</v>
+        <v>0.998656679882176</v>
       </c>
       <c r="L10">
-        <v>0.9489400000000009</v>
+        <v>0.9761799342428142</v>
       </c>
       <c r="M10">
-        <v>1.053571999999998</v>
+        <v>1.006681252277507</v>
       </c>
       <c r="N10">
-        <v>0.9666559999999993</v>
+        <v>0.9825344147703017</v>
       </c>
       <c r="O10">
-        <v>0.9908869999999991</v>
+        <v>0.9908877263645007</v>
       </c>
       <c r="P10">
-        <v>0.9898175</v>
+        <v>0.9911319681034223</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.09</v>
+        <v>1.037252785942101</v>
       </c>
       <c r="D11">
-        <v>0.88</v>
+        <v>0.9257705356791749</v>
       </c>
       <c r="E11">
-        <v>1.03</v>
+        <v>1.007978139672298</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.9795215192644341</v>
       </c>
       <c r="G11">
-        <v>1.09</v>
+        <v>1.037252785942101</v>
       </c>
       <c r="H11">
-        <v>0.88</v>
+        <v>0.9257705356791749</v>
       </c>
       <c r="I11">
-        <v>1.03</v>
+        <v>1.015973468772326</v>
       </c>
       <c r="J11">
-        <v>0.97</v>
+        <v>0.9794944047942302</v>
       </c>
       <c r="K11">
-        <v>1.02</v>
+        <v>1.007946382976398</v>
       </c>
       <c r="L11">
-        <v>0.93</v>
+        <v>0.9491220813218516</v>
       </c>
       <c r="M11">
-        <v>1.09</v>
+        <v>1.037252785942101</v>
       </c>
       <c r="N11">
-        <v>0.9550000000000001</v>
+        <v>0.9668743376757367</v>
       </c>
       <c r="O11">
-        <v>0.9924999999999999</v>
+        <v>0.9876307451395021</v>
       </c>
       <c r="P11">
-        <v>0.99</v>
+        <v>0.9878824148028518</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.047306194943997</v>
+        <v>1.037011990648133</v>
       </c>
       <c r="D12">
-        <v>0.9276161642496022</v>
+        <v>0.9260745748039266</v>
       </c>
       <c r="E12">
-        <v>1.014296358502399</v>
+        <v>1.007909046333152</v>
       </c>
       <c r="F12">
-        <v>0.9797005072384041</v>
+        <v>0.9795710240738237</v>
       </c>
       <c r="G12">
-        <v>1.047306194943997</v>
+        <v>1.037011990648133</v>
       </c>
       <c r="H12">
-        <v>0.9276161642496022</v>
+        <v>0.9260745748039266</v>
       </c>
       <c r="I12">
-        <v>1.014398557183996</v>
+        <v>1.015853936067461</v>
       </c>
       <c r="J12">
-        <v>0.9798552248320014</v>
+        <v>0.9795534416124833</v>
       </c>
       <c r="K12">
-        <v>1.008841585254397</v>
+        <v>1.007857431248952</v>
       </c>
       <c r="L12">
-        <v>0.9565291417599987</v>
+        <v>0.9493100857137541</v>
       </c>
       <c r="M12">
-        <v>1.047306194943997</v>
+        <v>1.037011990648133</v>
       </c>
       <c r="N12">
-        <v>0.9709562613760006</v>
+        <v>0.9669918105685391</v>
       </c>
       <c r="O12">
-        <v>0.9922298062336005</v>
+        <v>0.9876416589647588</v>
       </c>
       <c r="P12">
-        <v>0.9910679667455995</v>
+        <v>0.9878926913127106</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9930148727799156</v>
+        <v>1.037130940620655</v>
       </c>
       <c r="D13">
-        <v>0.992850651667461</v>
+        <v>0.9258562276167617</v>
       </c>
       <c r="E13">
-        <v>0.9930417773476204</v>
+        <v>1.0079537762545</v>
       </c>
       <c r="F13">
-        <v>0.9931438929443994</v>
+        <v>0.9795288886891909</v>
       </c>
       <c r="G13">
-        <v>0.9930148727799156</v>
+        <v>1.037130940620655</v>
       </c>
       <c r="H13">
-        <v>0.992850651667461</v>
+        <v>0.9258562276167617</v>
       </c>
       <c r="I13">
-        <v>0.9927537972816609</v>
+        <v>1.01594740929233</v>
       </c>
       <c r="J13">
-        <v>0.9931960738164011</v>
+        <v>0.9795134664762274</v>
       </c>
       <c r="K13">
-        <v>0.9934195112590208</v>
+        <v>1.007926333052678</v>
       </c>
       <c r="L13">
-        <v>0.9929055828988569</v>
+        <v>0.9491646545956037</v>
       </c>
       <c r="M13">
-        <v>0.9930148727799156</v>
+        <v>1.037130940620655</v>
       </c>
       <c r="N13">
-        <v>0.9929462145075407</v>
+        <v>0.9669050019356307</v>
       </c>
       <c r="O13">
-        <v>0.9930127986848492</v>
+        <v>0.9876174582952768</v>
       </c>
       <c r="P13">
-        <v>0.993040769999417</v>
+        <v>0.9878777120747433</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9905640992280428</v>
+        <v>1.053571999999998</v>
       </c>
       <c r="D14">
-        <v>0.9954270959934313</v>
+        <v>0.9164279999999991</v>
       </c>
       <c r="E14">
-        <v>0.9938167432511223</v>
+        <v>1.016883999999999</v>
       </c>
       <c r="F14">
-        <v>0.9941891180771878</v>
+        <v>0.976664</v>
       </c>
       <c r="G14">
-        <v>0.9905640992280428</v>
+        <v>1.053571999999998</v>
       </c>
       <c r="H14">
-        <v>0.9954270959934313</v>
+        <v>0.9164279999999991</v>
       </c>
       <c r="I14">
-        <v>0.9910132575558535</v>
+        <v>1.017927999999999</v>
       </c>
       <c r="J14">
-        <v>0.993428950588199</v>
+        <v>0.977700000000002</v>
       </c>
       <c r="K14">
-        <v>0.9923700646700258</v>
+        <v>1.010424000000001</v>
       </c>
       <c r="L14">
-        <v>0.9945724463915644</v>
+        <v>0.9489400000000009</v>
       </c>
       <c r="M14">
-        <v>0.9905640992280428</v>
+        <v>1.053571999999998</v>
       </c>
       <c r="N14">
-        <v>0.9946219196222768</v>
+        <v>0.9666559999999993</v>
       </c>
       <c r="O14">
-        <v>0.993499264137446</v>
+        <v>0.9908869999999991</v>
       </c>
       <c r="P14">
-        <v>0.9931727219694284</v>
+        <v>0.9898175</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9848088518153224</v>
+        <v>1.09</v>
       </c>
       <c r="D15">
-        <v>1.004004455682517</v>
+        <v>0.88</v>
       </c>
       <c r="E15">
-        <v>0.9907288351983266</v>
+        <v>1.03</v>
       </c>
       <c r="F15">
-        <v>0.9955773762197788</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.9848088518153224</v>
+        <v>1.09</v>
       </c>
       <c r="H15">
-        <v>1.004004455682517</v>
+        <v>0.88</v>
       </c>
       <c r="I15">
-        <v>0.9883989982630875</v>
+        <v>1.03</v>
       </c>
       <c r="J15">
-        <v>0.9955606735335814</v>
+        <v>0.97</v>
       </c>
       <c r="K15">
-        <v>0.9906183857939637</v>
+        <v>1.02</v>
       </c>
       <c r="L15">
-        <v>1.000638715397396</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>0.9848088518153224</v>
+        <v>1.09</v>
       </c>
       <c r="N15">
-        <v>0.9973666454404215</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9937798797289861</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="P15">
-        <v>0.9937920364879966</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.006681252277507</v>
+        <v>1.047306194943997</v>
       </c>
       <c r="D16">
-        <v>0.9668042872944713</v>
+        <v>0.9276161642496022</v>
       </c>
       <c r="E16">
-        <v>0.9982645422461321</v>
+        <v>1.014296358502399</v>
       </c>
       <c r="F16">
-        <v>0.9918008236398924</v>
+        <v>0.9797005072384041</v>
       </c>
       <c r="G16">
-        <v>1.006681252277507</v>
+        <v>1.047306194943997</v>
       </c>
       <c r="H16">
-        <v>0.9668042872944713</v>
+        <v>0.9276161642496022</v>
       </c>
       <c r="I16">
-        <v>1.002759702876757</v>
+        <v>1.014398557183996</v>
       </c>
       <c r="J16">
-        <v>0.9879085223676277</v>
+        <v>0.9798552248320014</v>
       </c>
       <c r="K16">
-        <v>0.998656679882176</v>
+        <v>1.008841585254397</v>
       </c>
       <c r="L16">
-        <v>0.9761799342428142</v>
+        <v>0.9565291417599987</v>
       </c>
       <c r="M16">
-        <v>1.006681252277507</v>
+        <v>1.047306194943997</v>
       </c>
       <c r="N16">
-        <v>0.9825344147703017</v>
+        <v>0.9709562613760006</v>
       </c>
       <c r="O16">
-        <v>0.9908877263645007</v>
+        <v>0.9922298062336005</v>
       </c>
       <c r="P16">
-        <v>0.9911319681034223</v>
+        <v>0.9910679667455995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9930148727799156</v>
+      </c>
+      <c r="D17">
+        <v>0.992850651667461</v>
+      </c>
+      <c r="E17">
+        <v>0.9930417773476204</v>
+      </c>
+      <c r="F17">
+        <v>0.9931438929443994</v>
+      </c>
+      <c r="G17">
+        <v>0.9930148727799156</v>
+      </c>
+      <c r="H17">
+        <v>0.992850651667461</v>
+      </c>
+      <c r="I17">
+        <v>0.9927537972816609</v>
+      </c>
+      <c r="J17">
+        <v>0.9931960738164011</v>
+      </c>
+      <c r="K17">
+        <v>0.9934195112590208</v>
+      </c>
+      <c r="L17">
+        <v>0.9929055828988569</v>
+      </c>
+      <c r="M17">
+        <v>0.9930148727799156</v>
+      </c>
+      <c r="N17">
+        <v>0.9929462145075407</v>
+      </c>
+      <c r="O17">
+        <v>0.9930127986848492</v>
+      </c>
+      <c r="P17">
+        <v>0.993040769999417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9905640992280428</v>
+      </c>
+      <c r="D18">
+        <v>0.9954270959934313</v>
+      </c>
+      <c r="E18">
+        <v>0.9938167432511223</v>
+      </c>
+      <c r="F18">
+        <v>0.9941891180771878</v>
+      </c>
+      <c r="G18">
+        <v>0.9905640992280428</v>
+      </c>
+      <c r="H18">
+        <v>0.9954270959934313</v>
+      </c>
+      <c r="I18">
+        <v>0.9910132575558535</v>
+      </c>
+      <c r="J18">
+        <v>0.993428950588199</v>
+      </c>
+      <c r="K18">
+        <v>0.9923700646700258</v>
+      </c>
+      <c r="L18">
+        <v>0.9945724463915644</v>
+      </c>
+      <c r="M18">
+        <v>0.9905640992280428</v>
+      </c>
+      <c r="N18">
+        <v>0.9946219196222768</v>
+      </c>
+      <c r="O18">
+        <v>0.993499264137446</v>
+      </c>
+      <c r="P18">
+        <v>0.9931727219694284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9848088518153224</v>
+      </c>
+      <c r="D19">
+        <v>1.004004455682517</v>
+      </c>
+      <c r="E19">
+        <v>0.9907288351983266</v>
+      </c>
+      <c r="F19">
+        <v>0.9955773762197788</v>
+      </c>
+      <c r="G19">
+        <v>0.9848088518153224</v>
+      </c>
+      <c r="H19">
+        <v>1.004004455682517</v>
+      </c>
+      <c r="I19">
+        <v>0.9883989982630875</v>
+      </c>
+      <c r="J19">
+        <v>0.9955606735335814</v>
+      </c>
+      <c r="K19">
+        <v>0.9906183857939637</v>
+      </c>
+      <c r="L19">
+        <v>1.000638715397396</v>
+      </c>
+      <c r="M19">
+        <v>0.9848088518153224</v>
+      </c>
+      <c r="N19">
+        <v>0.9973666454404215</v>
+      </c>
+      <c r="O19">
+        <v>0.9937798797289861</v>
+      </c>
+      <c r="P19">
+        <v>0.9937920364879966</v>
       </c>
     </row>
   </sheetData>
